--- a/data/trans_bre/P22_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P22_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,48</t>
+          <t>9,47</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,51</t>
+          <t>8,76</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,53</t>
+          <t>17,77</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>26,59%</t>
+          <t>15,4</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>27,71%</t>
+          <t>26,41%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>29,39%</t>
+          <t>25,49%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>53,04%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>49,14%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,66; 17,98</t>
+          <t>-0,61; 20,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,44; 17,54</t>
+          <t>-2,45; 20,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,48; 19,16</t>
+          <t>6,91; 29,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,36; 59,42</t>
+          <t>3,9; 28,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,96; 58,62</t>
+          <t>-2,75; 67,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,74; 63,24</t>
+          <t>-5,97; 72,77</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>16,38; 116,82</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>9,42; 121,94</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,3</t>
+          <t>8,8</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,54</t>
+          <t>8,1</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,38</t>
+          <t>4,86</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>36,04%</t>
+          <t>9,85</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>38,64%</t>
+          <t>24,19%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>22,78%</t>
+          <t>24,51%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>13,31%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>29,73%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,5; 21,16</t>
+          <t>-4,89; 19,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,86; 20,24</t>
+          <t>-3,38; 19,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 17,66</t>
+          <t>-6,82; 18,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,86; 82,04</t>
+          <t>-2,92; 23,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,13; 83,26</t>
+          <t>-11,19; 68,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 66,4</t>
+          <t>-8,85; 78,28</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-16,13; 65,35</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-8,31; 93,06</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,38</t>
+          <t>-19,51</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,98</t>
+          <t>-1,71</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>-15,34</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>-27,74</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>16,4%</t>
+          <t>-32,14%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>-3,19%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-24,59%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-43,12%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-21,11; 21,78</t>
+          <t>-49,84; 6,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,78; 24,85</t>
+          <t>-34,55; 25,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,15; 22,08</t>
+          <t>-48,4; 10,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-41,96; 84,03</t>
+          <t>-58,1; -2,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-33,11; 101,73</t>
+          <t>-64,66; 15,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-34,27; 65,75</t>
+          <t>-49,43; 70,72</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-61,82; 22,26</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-72,74; -3,46</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,46</t>
+          <t>5,84</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,0</t>
+          <t>7,33</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,28</t>
+          <t>8,97</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>27,51%</t>
+          <t>8,44</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>30,53%</t>
+          <t>14,96%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>23,16%</t>
+          <t>20,45%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>23,68%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>23,58%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,46; 14,96</t>
+          <t>-2,1; 13,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,19; 16,06</t>
+          <t>-0,72; 14,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,37; 14,9</t>
+          <t>0,01; 16,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,23; 49,63</t>
+          <t>-0,83; 16,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,78; 54,77</t>
+          <t>-4,97; 43,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,07; 45,2</t>
+          <t>-2,25; 46,52</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0,05; 51,78</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-1,26; 56,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P22_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P22_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>9,47</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>8,76</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>17,77</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>15,4</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>26,41%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>25,49%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>53,04%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>49,14%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>11.37529363848475</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>7.703536284853679</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>17.21218847698128</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>16.42427437072161</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.3267502271058047</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.2154856731719818</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.5081814706754632</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.5275236352297535</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-0,61; 20,39</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,45; 20,21</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>6,91; 29,4</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>3,9; 28,34</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-2,75; 67,14</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-5,97; 72,77</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>16,38; 116,82</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>9,42; 121,94</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>1.38073884520013</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.972686598429628</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>6.460428347535085</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>4.712684470034378</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0.03378330132674382</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.08391254101779408</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.1584328083408573</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.1257134818260912</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>22.01810992896633</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>20.04383327850909</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>28.85781416648442</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>29.76068790133387</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.7976758809312792</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.6772862348897296</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.099862938746255</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.330519106787032</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>8,8</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>8,1</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4,86</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>9,85</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>24,19%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>24,51%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>13,31%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>29,73%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-4,89; 19,64</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,38; 19,72</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-6,82; 18,31</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-2,92; 23,9</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-11,19; 68,51</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-8,85; 78,28</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-16,13; 65,35</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-8,31; 93,06</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>9.224723652421218</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>6.719886324685421</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>4.048634231711329</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>8.262431679896554</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.2561076883124008</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.1967680610839261</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.1093224985177618</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.25064827856483</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-19,51</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,71</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-15,34</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-27,74</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-32,14%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-3,19%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-24,59%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-43,12%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-4.504977196288264</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-4.910392431317083</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-8.082343452568463</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-4.645959465667928</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.106923285069311</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.1270104599468314</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.1895400585590855</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.1196277596606487</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-49,84; 6,8</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-34,55; 25,46</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-48,4; 10,01</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-58,1; -2,14</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-64,66; 15,81</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-49,43; 70,72</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-61,82; 22,26</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-72,74; -3,46</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>21.24608024638633</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>18.94664932439841</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>17.10748758085172</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>20.79377189003806</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.7525347136039012</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.7321546890224386</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.5935151406750926</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.8094871221140366</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,197 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>5,84</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>7,33</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>8,97</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>8,44</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>14,96%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>20,45%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>23,68%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>23,58%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-17.19706428280819</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.78679513744422</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-11.62008416170653</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-26.91837504311537</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.2877419537806626</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.05396860451474685</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.1953526833648014</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.4275726006906719</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,1; 13,82</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,72; 14,54</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,01; 16,94</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-0,83; 16,53</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-4,97; 43,18</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-2,25; 46,52</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>0,05; 51,78</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-1,26; 56,88</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-49.47979133183505</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-27.93051539794397</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-45.89407413543186</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-56.98039108042601</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.6341602687744936</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.4045869234484611</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.6095458978274234</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.7335728604820979</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>9.37877845900233</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>29.2899996595107</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>14.08686794099085</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-0.7379207722032328</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.2448430566322274</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.9149814017174746</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.3462444727973611</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>-0.03154370678919274</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>7.477737961936199</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>6.791031454092811</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>8.695465557381516</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>8.322080002145494</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.1969488058375994</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.1849647840583296</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.2289806628990509</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.2339903785792537</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.9453975820685017</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-1.456364094945</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.1286195488733034</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.9898883363470803</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.02308683189985756</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.03590249389003233</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.003790632711075764</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.02102489651964768</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>15.90023124659968</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>13.89059040548552</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>16.95466335935055</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>16.29293140375297</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.483465698090217</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.4338364756539724</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.5209386782875153</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.5624148018342684</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1025,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
